--- a/python_35/demo/datas/测试用例.xlsx
+++ b/python_35/demo/datas/测试用例.xlsx
@@ -1180,10 +1180,14 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="n"/>
+          <t>未通过</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '账号或密码不正确'}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">

--- a/python_35/demo/datas/测试用例.xlsx
+++ b/python_35/demo/datas/测试用例.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="compoundRecommend" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>case_id</t>
   </si>
@@ -48,31 +48,88 @@
     <t>登录成功</t>
   </si>
   <si>
-    <t>{"username":"dudu", "password":"123"}</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "登录成功"}</t>
-  </si>
-  <si>
-    <t>账号或密码不正确</t>
-  </si>
-  <si>
-    <t>{"username":"dudu", "password":"1234"}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "账号或密码不正确"}</t>
-  </si>
-  <si>
-    <t>账号或密码不能为空</t>
-  </si>
-  <si>
-    <t>{"username":'', "password":''}</t>
-  </si>
-  <si>
-    <t>{"code": 1, "msg": "账号或密码不能为空"}</t>
-  </si>
-  <si>
-    <t>{"username":'dudu', "password":'12345'}</t>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>{"mobileTel":"19000000001","password":"123456"}</t>
+  </si>
+  <si>
+    <t>{"code": 1}</t>
+  </si>
+  <si>
+    <t>账号不正确</t>
+  </si>
+  <si>
+    <t>{"mobileTel":#mobileTel#,"password":"123456"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"未注册用户"}</t>
+  </si>
+  <si>
+    <t>密码不正确</t>
+  </si>
+  <si>
+    <t>{"mobileTel":"19000000001","password":"1234567"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"fail":true,"msg":"密码错误","successful":false}</t>
+  </si>
+  <si>
+    <t>账号不能为空</t>
+  </si>
+  <si>
+    <t>{"username":'', "password":'12345'}</t>
+  </si>
+  <si>
+    <t>{"code":0,"fail":true,"msg":"登录参数错误","successful":false}</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>{"username":'19000000001', "password":''}</t>
+  </si>
+  <si>
+    <t>{"code":2,"fail":true,"msg":"短信验证码已失效","successful":false}</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>查询1条</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/opus/compoundRecommend</t>
+  </si>
+  <si>
+    <t>{"requestNum":1,"opusType":""}</t>
+  </si>
+  <si>
+    <t>{"code":1,"fail":false,"successful":true}</t>
+  </si>
+  <si>
+    <t>查询10条</t>
+  </si>
+  <si>
+    <t>{"requestNum":10,"opusType":""}</t>
+  </si>
+  <si>
+    <t>查询20条</t>
+  </si>
+  <si>
+    <t>{"requestNum":20,"opusType":""}</t>
+  </si>
+  <si>
+    <t>查询指定类型</t>
+  </si>
+  <si>
+    <t>{"requestNum":10,"opusType":"2"}</t>
   </si>
 </sst>
 </file>
@@ -81,9 +138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +150,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -100,77 +186,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,38 +277,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +309,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,169 +351,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +500,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,6 +525,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,30 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -517,32 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -563,141 +620,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1017,18 +1077,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="111.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.125" style="1" customWidth="1"/>
   </cols>
@@ -1069,17 +1129,17 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1092,19 +1152,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -1117,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -1142,22 +1202,45 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1169,14 +1252,143 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="88.625" customWidth="1"/>
+    <col min="7" max="7" width="53.125" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
